--- a/Excel/help_menu.xlsx
+++ b/Excel/help_menu.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHUBHAM\Documents\GitHub\new_audacity-mr\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B188AACF-E7C2-4857-84FC-3C97EE63302B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3444" yWindow="1776" windowWidth="8520" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -100,15 +106,9 @@
     <t>Note: on Macs this item is under the Audacity menu.</t>
   </si>
   <si>
-    <t>मदत मेनू - धैर्य मॅन्युअल</t>
-  </si>
-  <si>
     <t>मेनू मदत करा</t>
   </si>
   <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
     <t>येथे जा: सुचालन, शोध</t>
   </si>
   <si>
@@ -176,13 +176,19 @@
   </si>
   <si>
     <t>टीपः मॅकवर हा आयटम ऑडसिटी मेनू अंतर्गत आहे.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
+  </si>
+  <si>
+    <t>मदत मेनू - ओड्यासिटी  महितीपुस्तिका</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +251,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -291,7 +305,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,9 +337,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,6 +389,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -532,14 +582,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="57.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -555,10 +611,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -566,10 +622,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -577,10 +633,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -588,10 +644,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -599,10 +655,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -610,10 +666,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -621,10 +677,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -632,10 +688,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -643,10 +699,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -654,10 +710,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -665,10 +721,10 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -676,10 +732,10 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -687,10 +743,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -698,10 +754,10 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -709,10 +765,10 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -720,10 +776,10 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -731,10 +787,10 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -742,10 +798,10 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -753,10 +809,10 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -764,10 +820,10 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -775,10 +831,10 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -786,10 +842,10 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -797,10 +853,10 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -808,10 +864,10 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -819,10 +875,10 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -830,7 +886,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
